--- a/data/georgia_census/kakheti/gurjaani/healthcare_staff.xlsx
+++ b/data/georgia_census/kakheti/gurjaani/healthcare_staff.xlsx
@@ -1363,13 +1363,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8627D2C9-58B1-4212-9459-8A03E30EE159}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0AE217B-8F22-4DB4-9E9E-09E51611D222}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06DC61C9-5C97-470D-A283-E4FADE7A36AF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41E26DF5-F27A-4919-9A73-654746198DB6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAF2824C-D9D3-464D-8AB5-B6A9D996E7C3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50BA498E-F55F-4952-A1FB-A59FF40AD445}"/>
 </file>